--- a/REGULAR/OJT/NEW DONE/OLEGARIO TEOFISTA.xlsx
+++ b/REGULAR/OJT/NEW DONE/OLEGARIO TEOFISTA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E142B5-1962-420E-AB25-20C1AAAB7784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461E7A24-1A7F-46DD-BB30-3EC79715032B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="354">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2148,10 +2148,10 @@
   </sheetPr>
   <dimension ref="A2:K537"/>
   <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="1980" activePane="bottomLeft"/>
-      <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <pane ySplit="1980" topLeftCell="A488"/>
+      <selection activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="D502" sqref="D502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2318,7 +2318,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>111.83099999999996</v>
+        <v>112.08099999999996</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2328,7 +2328,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>208.33299999999997</v>
+        <v>209.58299999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -13231,7 +13231,6 @@
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
-        <f>EDATE(A492,1)</f>
         <v>44927</v>
       </c>
       <c r="B494" s="20" t="s">
@@ -13256,7 +13255,6 @@
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
-        <f t="shared" ref="A495:A505" si="0">EDATE(A494,1)</f>
         <v>44958</v>
       </c>
       <c r="B495" s="20"/>
@@ -13277,7 +13275,6 @@
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
-        <f t="shared" si="0"/>
         <v>44986</v>
       </c>
       <c r="B496" s="20"/>
@@ -13298,7 +13295,6 @@
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
-        <f t="shared" si="0"/>
         <v>45017</v>
       </c>
       <c r="B497" s="20" t="s">
@@ -13345,21 +13341,22 @@
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
-        <f>EDATE(A497,1)</f>
         <v>45047</v>
       </c>
       <c r="B499" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C499" s="13"/>
+      <c r="C499" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D499" s="39">
         <v>1</v>
       </c>
       <c r="E499" s="9"/>
       <c r="F499" s="20"/>
-      <c r="G499" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G499" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H499" s="39"/>
       <c r="I499" s="9"/>
@@ -13392,12 +13389,15 @@
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B501" s="20"/>
+        <v>45078</v>
+      </c>
+      <c r="B501" s="20" t="s">
+        <v>82</v>
+      </c>
       <c r="C501" s="13"/>
-      <c r="D501" s="39"/>
+      <c r="D501" s="39">
+        <v>1</v>
+      </c>
       <c r="E501" s="9"/>
       <c r="F501" s="20"/>
       <c r="G501" s="13" t="str">
@@ -13407,12 +13407,13 @@
       <c r="H501" s="39"/>
       <c r="I501" s="9"/>
       <c r="J501" s="11"/>
-      <c r="K501" s="20"/>
+      <c r="K501" s="49">
+        <v>45104</v>
+      </c>
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
-        <f t="shared" si="0"/>
-        <v>59</v>
+        <v>45108</v>
       </c>
       <c r="B502" s="20"/>
       <c r="C502" s="13"/>
@@ -13430,8 +13431,7 @@
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
-        <f t="shared" si="0"/>
-        <v>88</v>
+        <v>45139</v>
       </c>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
@@ -13449,8 +13449,7 @@
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
-        <f t="shared" si="0"/>
-        <v>119</v>
+        <v>45170</v>
       </c>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -13468,8 +13467,7 @@
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
-        <f t="shared" si="0"/>
-        <v>149</v>
+        <v>45200</v>
       </c>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -14041,8 +14039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14166,7 +14164,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>320.16399999999993</v>
+        <v>321.66399999999993</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
